--- a/inst/extdata/rainfall_template.xlsx
+++ b/inst/extdata/rainfall_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sccwrp.sharepoint.com/sites/Staff/Shared Documents/P Drive/Data/DuyNguyen/Projects/rainfall_flow_calculator_shiny/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sccwrp.sharepoint.com/sites/Staff/Shared Documents/P Drive/Data/DuyNguyen/Projects/bmp-hydrology-calculator/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{D55E6867-2FD5-49AB-B39A-02217FA18820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87293FDC-5338-4DE2-AECC-E3A6CCC4B1F2}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{D55E6867-2FD5-49AB-B39A-02217FA18820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAEE2040-F976-48BF-A9C9-D160D07BF9BE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -174,465 +174,219 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Application Usage Guide</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Using this Application</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>It is required that the column names and tab names in the templates remain unchanged.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
             <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>=======================</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>**Rainfall Analysis:**</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>It is advised to copy and paste the rainfall data, whether it is in the form of 1-minute or time-of-tips data, into the downloaded template. It is important to note that the rain gauge values must be entered into the designated rain column within the template. A user can submit a continuous rainfall record without skipping any timestamps, containing multiple events in a single file.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
             <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>This guide provides instructions for using the application and outlines the data requirements for successful analysis.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Download 1-min demo data</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Download time of tips demo data</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>- Download rainfall template</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
             <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Analysis Types</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>--------------</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>IMPORTANT: The column names and tab names in the templates (both rainfall and flow) must remain unchanged for accurate analysis and app's functionality.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>The application supports two types of analysis: Rainfall Analysis and Flow Analysis. </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>---------------------</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Rainfall Analysis</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>: The user is advised to copy and paste the rainfall data, whether it is in the form of 1-minute or time-of-tips data, into the downloaded template. It is important to note that the rain gauge values must be entered into the designated rain column within the template. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>A user can submit a continuous rainfall record without skipping any timestamps, containing multiple events in a single file.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Demo data are available on the Shin</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>y App.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>---------------------</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Flow</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> Analysis</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>: Flow data should be copy-pasted from the user's datasheet to the downloaded data template. Up to four flows can be accomodated for analysis. The available flow types are inflow 1, inflow 2, outflow and bypass. Refer to the Methods tab for an illustration of the possible flow type configurations. A user does not need to submit all four types, any combination of the flow types is acceptable. A user can only submit flow data for a single rain event. If any of the data types are not applicable, leave the tab blank (as is)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Demo data are available on the Shin</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>y App.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>---------------------</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Data Requirements</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>---------------------</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>To ensure successful analysis, the uploaded Excel spreadsheet must conform to the following requirements:</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- Flow must be reported in units of L/s, gpm, or cfs.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- The timestamp should be in 24-hour format (mm/dd/yy hh:mm:ss).</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- Each tab must contain exactly two columns: one for the sample timestamps data and one for the associated values.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>- The column names and the tab names must not be changed from the template.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Please ensure that your data meets these requirements before using the application for analysis.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>For further assistance or inquiries, please contact our support team at stormwater@sccwrp.org</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>**Data Requirements**</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>The uploaded Excel spreadsheet must conform to the following requirements:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1. Flow must be reported in units of L/s, gpm, or cfs.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2. The timestamp should be in 24-hour format (mm/dd/yy hh:mm:ss).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3. Each tab must contain exactly two columns, one for the sample timestamps data and one for the associated values.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4. The column names and the tab names must not be changed from the template.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -909,7 +663,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,6 +702,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="02ea596c-bf3f-4512-ad68-024a720c79b2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="959569b2-1f16-4dd0-b5ed-bb064e5cd07e" xsi:nil="true"/>
+    <OldForms xmlns="02ea596c-bf3f-4512-ad68-024a720c79b2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C0FD75001275F4DBA43EB7BE58C8A34" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="75e20f4bf570a29fdd68b6ac0ce9f23e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="02ea596c-bf3f-4512-ad68-024a720c79b2" xmlns:ns3="959569b2-1f16-4dd0-b5ed-bb064e5cd07e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7d8333fcdd8157586878df4d15f204f2" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -1221,31 +998,12 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="02ea596c-bf3f-4512-ad68-024a720c79b2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="959569b2-1f16-4dd0-b5ed-bb064e5cd07e" xsi:nil="true"/>
-    <OldForms xmlns="02ea596c-bf3f-4512-ad68-024a720c79b2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBBF45D0-3749-42AD-B614-ED620F4CAFEB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA24CA5D-F738-4AC3-9168-7074A544975A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1261,9 +1019,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA24CA5D-F738-4AC3-9168-7074A544975A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBBF45D0-3749-42AD-B614-ED620F4CAFEB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="02ea596c-bf3f-4512-ad68-024a720c79b2"/>
+    <ds:schemaRef ds:uri="959569b2-1f16-4dd0-b5ed-bb064e5cd07e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/inst/extdata/rainfall_template.xlsx
+++ b/inst/extdata/rainfall_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sccwrp.sharepoint.com/sites/Staff/Shared Documents/P Drive/Data/DuyNguyen/Projects/bmp-hydrology-calculator/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{D55E6867-2FD5-49AB-B39A-02217FA18820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAEE2040-F976-48BF-A9C9-D160D07BF9BE}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{D55E6867-2FD5-49AB-B39A-02217FA18820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F6FEC6E-4667-4AFC-AF19-E6D344A59451}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,59 +183,6 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Using this Application</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>It is required that the column names and tab names in the templates remain unchanged.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>**Rainfall Analysis:**</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
             <a:t>It is advised to copy and paste the rainfall data, whether it is in the form of 1-minute or time-of-tips data, into the downloaded template. It is important to note that the rain gauge values must be entered into the designated rain column within the template. A user can submit a continuous rainfall record without skipping any timestamps, containing multiple events in a single file.</a:t>
           </a:r>
         </a:p>
@@ -314,7 +261,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>**Data Requirements**</a:t>
+            <a:t>**Data Requirements:**</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -342,7 +289,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>1. Flow must be reported in units of L/s, gpm, or cfs.</a:t>
+            <a:t>1. The timestamp should be in 24-hour format (mm/dd/yy hh:mm:ss).</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -356,7 +303,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>2. The timestamp should be in 24-hour format (mm/dd/yy hh:mm:ss).</a:t>
+            <a:t>2. Each tab must contain exactly two columns, one for the sample timestamps data and one for the associated values.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -370,25 +317,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>3. Each tab must contain exactly two columns, one for the sample timestamps data and one for the associated values.</a:t>
+            <a:t>3. **The column names and the tab names must not be changed from the template**.</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>4. The column names and the tab names must not be changed from the template.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1600">
-            <a:effectLst/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -663,7 +593,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,29 +632,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="02ea596c-bf3f-4512-ad68-024a720c79b2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="959569b2-1f16-4dd0-b5ed-bb064e5cd07e" xsi:nil="true"/>
-    <OldForms xmlns="02ea596c-bf3f-4512-ad68-024a720c79b2" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C0FD75001275F4DBA43EB7BE58C8A34" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="75e20f4bf570a29fdd68b6ac0ce9f23e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="02ea596c-bf3f-4512-ad68-024a720c79b2" xmlns:ns3="959569b2-1f16-4dd0-b5ed-bb064e5cd07e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7d8333fcdd8157586878df4d15f204f2" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -998,27 +905,30 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="02ea596c-bf3f-4512-ad68-024a720c79b2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="959569b2-1f16-4dd0-b5ed-bb064e5cd07e" xsi:nil="true"/>
+    <OldForms xmlns="02ea596c-bf3f-4512-ad68-024a720c79b2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA24CA5D-F738-4AC3-9168-7074A544975A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{501C2050-83AC-476A-AFDE-522EA9091AD5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="02ea596c-bf3f-4512-ad68-024a720c79b2"/>
-    <ds:schemaRef ds:uri="959569b2-1f16-4dd0-b5ed-bb064e5cd07e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBBF45D0-3749-42AD-B614-ED620F4CAFEB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1036,4 +946,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{501C2050-83AC-476A-AFDE-522EA9091AD5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="02ea596c-bf3f-4512-ad68-024a720c79b2"/>
+    <ds:schemaRef ds:uri="959569b2-1f16-4dd0-b5ed-bb064e5cd07e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA24CA5D-F738-4AC3-9168-7074A544975A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/inst/extdata/rainfall_template.xlsx
+++ b/inst/extdata/rainfall_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sccwrp.sharepoint.com/sites/Staff/Shared Documents/P Drive/Data/DuyNguyen/Projects/bmp-hydrology-calculator/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{D55E6867-2FD5-49AB-B39A-02217FA18820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F6FEC6E-4667-4AFC-AF19-E6D344A59451}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{D55E6867-2FD5-49AB-B39A-02217FA18820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{592CE74F-590C-4ABD-996F-9F483A8C8F0D}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -174,7 +174,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1600">
+            <a:rPr lang="en-US" sz="2000" b="0" i="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -183,23 +183,12 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>It is advised to copy and paste the rainfall data, whether it is in the form of 1-minute or time-of-tips data, into the downloaded template. It is important to note that the rain gauge values must be entered into the designated rain column within the template. A user can submit a continuous rainfall record without skipping any timestamps, containing multiple events in a single file.</a:t>
+            <a:t>Hyetograph data for up to approximately one continuous month (including multiple rain events) may be uploaded in a single file. Larger/longer records must be parsed for separate uploads. The calculator determines statistics for individual events.</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1600">
+            <a:rPr lang="en-US" sz="2000" b="0" i="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -208,12 +197,12 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>- Download 1-min demo data</a:t>
+            <a:t>It is advised to copy and paste the rainfall data, whether it is in the form of 1-minute or time-of-tips data, into the downloaded template. It is important to note that the rain gauge values must be entered into the designated rain column within the template.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1600">
+            <a:rPr lang="en-US" sz="2000" b="0" i="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -222,12 +211,12 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>- Download time of tips demo data</a:t>
+            <a:t>· Download 1-min demo data</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1600">
+            <a:rPr lang="en-US" sz="2000" b="0" i="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -236,23 +225,12 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>- Download rainfall template</a:t>
+            <a:t>· Download time of tips demo data</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="en-US" sz="1600">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1600">
+            <a:rPr lang="en-US" sz="2000" b="0" i="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -261,12 +239,12 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>**Data Requirements:**</a:t>
+            <a:t>· Download rainfall template</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1600">
+            <a:rPr lang="en-US" sz="2000" b="0" i="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -275,12 +253,12 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>The uploaded Excel spreadsheet must conform to the following requirements:</a:t>
+            <a:t>Data Requirements: There are two worksheets in the template: an instruction tab (Instructions) and a data tab (rainfall_data). The uploaded Excel spreadsheet must conform to the following requirements:</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1600">
+            <a:rPr lang="en-US" sz="2000" b="0" i="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -289,12 +267,12 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>1. The timestamp should be in 24-hour format (mm/dd/yy hh:mm:ss).</a:t>
+            <a:t>1. The data tab must contain exactly two columns, one for the measurement timestamps data and one for the associated values.</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1600">
+            <a:rPr lang="en-US" sz="2000" b="0" i="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -303,12 +281,12 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>2. Each tab must contain exactly two columns, one for the sample timestamps data and one for the associated values.</a:t>
+            <a:t>2. The timestamp should be in 24-hour format (mm/dd/yy hh:mm:ss).</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1600">
+            <a:rPr lang="en-US" sz="2000" b="0" i="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -317,7 +295,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>3. **The column names and the tab names must not be changed from the template**.</a:t>
+            <a:t>3. The column names and the tab names must not be changed from the template.</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -593,7 +571,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,8 +610,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C0FD75001275F4DBA43EB7BE58C8A34" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="75e20f4bf570a29fdd68b6ac0ce9f23e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="02ea596c-bf3f-4512-ad68-024a720c79b2" xmlns:ns3="959569b2-1f16-4dd0-b5ed-bb064e5cd07e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7d8333fcdd8157586878df4d15f204f2" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000C0FD75001275F4DBA43EB7BE58C8A34" ma:contentTypeVersion="22" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cdbf04b8ff6af1f1edbadfc0fb707b99">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="02ea596c-bf3f-4512-ad68-024a720c79b2" xmlns:ns3="959569b2-1f16-4dd0-b5ed-bb064e5cd07e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f194f4ff1faacf22d916baffc85e0afb" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="02ea596c-bf3f-4512-ad68-024a720c79b2"/>
     <xsd:import namespace="959569b2-1f16-4dd0-b5ed-bb064e5cd07e"/>
@@ -662,6 +640,7 @@
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
                 <xsd:element ref="ns2:OldForms" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -762,6 +741,11 @@
         <xsd:restriction base="dms:Text">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="28" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -906,6 +890,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -919,36 +912,19 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBBF45D0-3749-42AD-B614-ED620F4CAFEB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3DDA7E9-8AE2-4443-9DA6-A986AE09A35E}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA24CA5D-F738-4AC3-9168-7074A544975A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="02ea596c-bf3f-4512-ad68-024a720c79b2"/>
-    <ds:schemaRef ds:uri="959569b2-1f16-4dd0-b5ed-bb064e5cd07e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{501C2050-83AC-476A-AFDE-522EA9091AD5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -958,12 +934,4 @@
     <ds:schemaRef ds:uri="959569b2-1f16-4dd0-b5ed-bb064e5cd07e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA24CA5D-F738-4AC3-9168-7074A544975A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/inst/extdata/rainfall_template.xlsx
+++ b/inst/extdata/rainfall_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sccwrp.sharepoint.com/sites/Staff/Shared Documents/P Drive/Data/DuyNguyen/Projects/bmp-hydrology-calculator/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{D55E6867-2FD5-49AB-B39A-02217FA18820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{592CE74F-590C-4ABD-996F-9F483A8C8F0D}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{D55E6867-2FD5-49AB-B39A-02217FA18820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D821455-287B-49F9-8F27-9AF44C32B606}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,6 +296,37 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>3. The column names and the tab names must not be changed from the template.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4. Data cannot exceed 45000 rows.</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -890,15 +921,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -912,19 +934,36 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3DDA7E9-8AE2-4443-9DA6-A986AE09A35E}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA24CA5D-F738-4AC3-9168-7074A544975A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3DDA7E9-8AE2-4443-9DA6-A986AE09A35E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="02ea596c-bf3f-4512-ad68-024a720c79b2"/>
+    <ds:schemaRef ds:uri="959569b2-1f16-4dd0-b5ed-bb064e5cd07e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{501C2050-83AC-476A-AFDE-522EA9091AD5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -934,4 +973,12 @@
     <ds:schemaRef ds:uri="959569b2-1f16-4dd0-b5ed-bb064e5cd07e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA24CA5D-F738-4AC3-9168-7074A544975A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>